--- a/pmSim/dat/err2-f.xlsx
+++ b/pmSim/dat/err2-f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\Sim\pmSim\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05245202-DFF2-492E-A8AF-71FB99C25A3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64FB27D-7908-486F-9D4D-772B21AFEB33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="240" windowWidth="26430" windowHeight="15930" xr2:uid="{B49B98FE-A6EA-4452-820B-E84346751C78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B49B98FE-A6EA-4452-820B-E84346751C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>观测值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列1</t>
   </si>
   <si>
@@ -45,6 +41,10 @@
   </si>
   <si>
     <t>支持向量回归</t>
+  </si>
+  <si>
+    <t>真实值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -132,10 +132,10 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -203,20 +203,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
               <a:t>能耗观测值和评估模型预测</a:t>
             </a:r>
           </a:p>
@@ -235,15 +238,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -266,13 +269,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>观测值</c:v>
+                  <c:v>真实值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1667,7 +1670,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3062,7 +3065,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -4468,20 +4471,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
                   <a:t>采样与预测数据组编号</a:t>
                 </a:r>
               </a:p>
@@ -4500,15 +4506,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -4591,27 +4597,36 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
                   <a:t>功率值</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
                   <a:t>(w)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4628,15 +4643,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -4694,8 +4709,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21559120945688245"/>
-          <c:y val="0.9287822858687369"/>
+          <c:x val="0.21310605860972345"/>
+          <c:y val="0.92878226871931724"/>
           <c:w val="0.62273135379463218"/>
           <c:h val="7.000623800728413E-2"/>
         </c:manualLayout>
@@ -4713,15 +4728,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -5370,9 +5385,9 @@
   <autoFilter ref="B2:E453" xr:uid="{A22F6B5A-4A3B-4782-8F93-75F19C5AB673}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D7BB090A-53E9-480C-8642-2DB08D3E46DB}" name="列1" totalsRowLabel="汇总" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{835FC70E-B021-468E-B0D1-6EF636459631}" name="观测值" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{835FC70E-B021-468E-B0D1-6EF636459631}" name="真实值" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="4" xr3:uid="{EC358760-96C8-4CD0-B81B-1356EA6EAEDC}" name="多项式套索回归" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6E9F68AC-556F-4572-A481-510148D95BE1}" name="支持向量回归" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{6E9F68AC-556F-4572-A481-510148D95BE1}" name="支持向量回归" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5677,8 +5692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF12E0-C68C-4257-A648-C56F2D83AA5A}">
   <dimension ref="A1:S453"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView tabSelected="1" topLeftCell="H27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5699,16 +5714,16 @@
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
